--- a/resources/professeurs.xlsx
+++ b/resources/professeurs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\excel_to_xml\resources\GINF2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD1E23-AC96-4C87-9040-53F8E7212351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE2962-60F2-46C6-A196-A8B74CCC4F41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="2565" windowWidth="15375" windowHeight="8325" xr2:uid="{D282FDAF-2FDC-4854-80D2-C8EA3F1CCD5F}"/>
+    <workbookView xWindow="4095" yWindow="1500" windowWidth="15375" windowHeight="8325" xr2:uid="{D282FDAF-2FDC-4854-80D2-C8EA3F1CCD5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>El Haddad</t>
   </si>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t>MI</t>
+  </si>
+  <si>
+    <t>Matiere</t>
+  </si>
+  <si>
+    <t>GINF32</t>
+  </si>
+  <si>
+    <t>GINF41</t>
+  </si>
+  <si>
+    <t>GINF33</t>
+  </si>
+  <si>
+    <t>GINF25</t>
+  </si>
+  <si>
+    <t>GINF34</t>
+  </si>
+  <si>
+    <t>GINF36</t>
+  </si>
+  <si>
+    <t>GINF52</t>
+  </si>
+  <si>
+    <t>GINF42</t>
   </si>
 </sst>
 </file>
@@ -481,20 +508,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DE032-F837-48F3-9999-072D67E79C55}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -513,8 +540,14 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -533,8 +566,14 @@
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -553,8 +592,11 @@
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -573,8 +615,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -593,8 +638,14 @@
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -613,8 +664,11 @@
       <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -633,8 +687,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
     </row>
   </sheetData>

--- a/resources/professeurs.xlsx
+++ b/resources/professeurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE2962-60F2-46C6-A196-A8B74CCC4F41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1BDA4-3139-4516-B849-460E85B49962}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4095" yWindow="1500" windowWidth="15375" windowHeight="8325" xr2:uid="{D282FDAF-2FDC-4854-80D2-C8EA3F1CCD5F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>El Haddad</t>
   </si>
@@ -123,9 +123,6 @@
     <t>MI</t>
   </si>
   <si>
-    <t>Matiere</t>
-  </si>
-  <si>
     <t>GINF32</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>GINF42</t>
+  </si>
+  <si>
+    <t>Matiere1</t>
+  </si>
+  <si>
+    <t>Matiere2</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,10 +544,10 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,10 +570,10 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -593,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -616,7 +619,7 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -639,10 +642,10 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,7 +668,7 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -688,7 +691,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">

--- a/resources/professeurs.xlsx
+++ b/resources/professeurs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1BDA4-3139-4516-B849-460E85B49962}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2112A0B-F578-457B-A8EC-7053778D4758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1500" windowWidth="15375" windowHeight="8325" xr2:uid="{D282FDAF-2FDC-4854-80D2-C8EA3F1CCD5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D282FDAF-2FDC-4854-80D2-C8EA3F1CCD5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>Rahali</t>
   </si>
   <si>
-    <t>CNE</t>
-  </si>
-  <si>
     <t>LastName</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Matiere2</t>
+  </si>
+  <si>
+    <t>CIN</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DE032-F837-48F3-9999-072D67E79C55}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,28 +526,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -561,19 +561,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -587,16 +587,16 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,16 +610,16 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -633,19 +633,19 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -676,22 +676,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
